--- a/results/us-east-1-128/grapher.xlsx
+++ b/results/us-east-1-128/grapher.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Google Drive/serverlessComputingProject/7x24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Google Drive/serverlessComputingProject/7x24/results/us-east-1-128/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666743C-DF11-0E42-8034-728D67422CE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4626B7-9C8C-7142-81ED-B6723030C0A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20480" yWindow="500" windowWidth="20480" windowHeight="25100" xr2:uid="{FC17504E-3CDD-9445-B08A-7A52929067FD}"/>
   </bookViews>
@@ -3495,7 +3495,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
